--- a/hongzhen xu/models and results/result.xlsx
+++ b/hongzhen xu/models and results/result.xlsx
@@ -29,10 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
-    <t>股票</t>
+    <t>Stock</t>
   </si>
   <si>
-    <t>模型</t>
+    <t>Model</t>
   </si>
   <si>
     <t>MSE</t>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
